--- a/codigos_identidad.xlsx
+++ b/codigos_identidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandro/Documents/GitHub/envi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92AC34ED-070C-974F-8A6D-B9E71C65958F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C13BD4-73A0-FA4E-9C1E-E9FCC1FD8493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15720" xr2:uid="{38C29CAB-8DD0-3246-93C8-F77B9CA4345E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -485,7 +484,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
